--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId3"/>
+    <sheet name="master_item_backpack" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -58,6 +58,12 @@
   <si>
     <t xml:space="preserve">20</t>
   </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -123,43 +129,57 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -24,6 +24,15 @@
   </si>
   <si>
     <t xml:space="preserve">total_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">301</t>
@@ -53,16 +62,7 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
 </sst>
 </file>
@@ -129,58 +129,58 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t xml:space="preserve">total_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">301</t>
@@ -60,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
@@ -107,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -135,18 +129,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -163,24 +157,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_backpack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
